--- a/output/WPA_26406328000104.xlsx
+++ b/output/WPA_26406328000104.xlsx
@@ -823,10 +823,10 @@
         <v>44165</v>
       </c>
       <c r="B40">
-        <v>0.4084141100000001</v>
+        <v>0.4107470499999999</v>
       </c>
       <c r="C40">
-        <v>0.008285317602827247</v>
+        <v>0.009955472092296302</v>
       </c>
     </row>
   </sheetData>

--- a/output/WPA_26406328000104.xlsx
+++ b/output/WPA_26406328000104.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>WPA MASTER MULTIMERCADO CRÉDITO PRIVADO FUNDO DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,447 +383,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43008</v>
       </c>
       <c r="B2">
-        <v>0.003720600000000074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43039</v>
       </c>
       <c r="B3">
-        <v>0.003849299999999944</v>
-      </c>
-      <c r="C3">
         <v>0.0001282229337524754</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43069</v>
       </c>
       <c r="B4">
-        <v>0.0001496999999999193</v>
-      </c>
-      <c r="C4">
         <v>-0.003685413736902565</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43100</v>
       </c>
       <c r="B5">
-        <v>0.01498920000000004</v>
-      </c>
-      <c r="C5">
         <v>0.01483727885935493</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43131</v>
       </c>
       <c r="B6">
-        <v>0.04309319999999994</v>
-      </c>
-      <c r="C6">
         <v>0.0276889645722338</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43159</v>
       </c>
       <c r="B7">
-        <v>0.04699570000000008</v>
-      </c>
-      <c r="C7">
         <v>0.003741276426689533</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43190</v>
       </c>
       <c r="B8">
-        <v>0.05366760000000004</v>
-      </c>
-      <c r="C8">
         <v>0.006372423497059243</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43220</v>
       </c>
       <c r="B9">
-        <v>0.05476489999999989</v>
-      </c>
-      <c r="C9">
         <v>0.001041410023426614</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43251</v>
       </c>
       <c r="B10">
-        <v>0.0317715999999999</v>
-      </c>
-      <c r="C10">
         <v>-0.02179945502547531</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43281</v>
       </c>
       <c r="B11">
-        <v>0.02509910000000004</v>
-      </c>
-      <c r="C11">
         <v>-0.006467032044688792</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43312</v>
       </c>
       <c r="B12">
-        <v>0.04832600000000009</v>
-      </c>
-      <c r="C12">
         <v>0.02265819958285009</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43343</v>
       </c>
       <c r="B13">
-        <v>0.04292899999999999</v>
-      </c>
-      <c r="C13">
         <v>-0.005148207714012698</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43373</v>
       </c>
       <c r="B14">
-        <v>0.04896469999999997</v>
-      </c>
-      <c r="C14">
         <v>0.00578725876833408</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43404</v>
       </c>
       <c r="B15">
-        <v>0.0996973000000001</v>
-      </c>
-      <c r="C15">
         <v>0.04836444925172412</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43434</v>
       </c>
       <c r="B16">
-        <v>0.1092152900000001</v>
-      </c>
-      <c r="C16">
         <v>0.008655099907947328</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43465</v>
       </c>
       <c r="B17">
-        <v>0.1647185900000001</v>
-      </c>
-      <c r="C17">
         <v>0.05003834737979496</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43496</v>
       </c>
       <c r="B18">
-        <v>0.19756409</v>
-      </c>
-      <c r="C18">
         <v>0.02820037413500875</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43524</v>
       </c>
       <c r="B19">
-        <v>0.20005856</v>
-      </c>
-      <c r="C19">
         <v>0.002082953238853325</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43555</v>
       </c>
       <c r="B20">
-        <v>0.20433799</v>
-      </c>
-      <c r="C20">
         <v>0.003566017645005637</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43585</v>
       </c>
       <c r="B21">
-        <v>0.2149757000000001</v>
-      </c>
-      <c r="C21">
         <v>0.008832827734679416</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43616</v>
       </c>
       <c r="B22">
-        <v>0.22910853</v>
-      </c>
-      <c r="C22">
         <v>0.01163219149156625</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43646</v>
       </c>
       <c r="B23">
-        <v>0.24635049</v>
-      </c>
-      <c r="C23">
         <v>0.01402802078023169</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43677</v>
       </c>
       <c r="B24">
-        <v>0.26076433</v>
-      </c>
-      <c r="C24">
         <v>0.01156483679001075</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43708</v>
       </c>
       <c r="B25">
-        <v>0.2666237300000001</v>
-      </c>
-      <c r="C25">
         <v>0.004647498236248548</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43738</v>
       </c>
       <c r="B26">
-        <v>0.2781215399999999</v>
-      </c>
-      <c r="C26">
         <v>0.009077526125299995</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43769</v>
       </c>
       <c r="B27">
-        <v>0.3111225500000001</v>
-      </c>
-      <c r="C27">
         <v>0.02581993102158364</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43799</v>
       </c>
       <c r="B28">
-        <v>0.31694249</v>
-      </c>
-      <c r="C28">
         <v>0.004438898560626514</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43830</v>
       </c>
       <c r="B29">
-        <v>0.3410771100000001</v>
-      </c>
-      <c r="C29">
         <v>0.0183262520446128</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43861</v>
       </c>
       <c r="B30">
-        <v>0.35387459</v>
-      </c>
-      <c r="C30">
         <v>0.009542687668421923</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43890</v>
       </c>
       <c r="B31">
-        <v>0.3418431399999999</v>
-      </c>
-      <c r="C31">
         <v>-0.008886679821651811</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43921</v>
       </c>
       <c r="B32">
-        <v>0.2592302099999999</v>
-      </c>
-      <c r="C32">
         <v>-0.06156675660316002</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43951</v>
       </c>
       <c r="B33">
-        <v>0.3083881399999999</v>
-      </c>
-      <c r="C33">
         <v>0.03903808025698496</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43982</v>
       </c>
       <c r="B34">
-        <v>0.3429579199999999</v>
-      </c>
-      <c r="C34">
         <v>0.02642165496853255</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44012</v>
       </c>
       <c r="B35">
-        <v>0.36871659</v>
-      </c>
-      <c r="C35">
         <v>0.01918054885889497</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44043</v>
       </c>
       <c r="B36">
-        <v>0.3963174599999999</v>
-      </c>
-      <c r="C36">
         <v>0.0201655114007202</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44074</v>
       </c>
       <c r="B37">
-        <v>0.4006109499999999</v>
-      </c>
-      <c r="C37">
         <v>0.003074866656755937</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44104</v>
       </c>
       <c r="B38">
-        <v>0.3917941199999999</v>
-      </c>
-      <c r="C38">
         <v>-0.006294988626213471</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44135</v>
       </c>
       <c r="B39">
-        <v>0.3968408400000001</v>
-      </c>
-      <c r="C39">
         <v>0.003626053543034136</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44165</v>
       </c>
       <c r="B40">
-        <v>0.4107470499999999</v>
-      </c>
-      <c r="C40">
-        <v>0.009955472092296302</v>
+        <v>0.006954199592274168</v>
       </c>
     </row>
   </sheetData>
